--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetsuji\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papa\01.equinix\55.learning\03.payment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9012" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -1059,15 +1059,13 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.21875" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1465,9 +1463,7 @@
   </sheetPr>
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
